--- a/Customers.xlsx
+++ b/Customers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>Pittard</t>
+  </si>
+  <si>
+    <t>Staging</t>
   </si>
 </sst>
 </file>
@@ -448,15 +451,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,8 +475,11 @@
       <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -489,8 +495,11 @@
       <c r="E2">
         <v>2016</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -506,8 +515,11 @@
       <c r="E3">
         <v>2016</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -524,7 +536,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -541,7 +553,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -558,7 +570,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -572,7 +584,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -589,7 +601,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -606,7 +618,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
@@ -623,7 +635,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -640,7 +652,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -657,7 +669,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
@@ -674,7 +686,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
@@ -691,7 +703,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -708,7 +720,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>

--- a/Customers.xlsx
+++ b/Customers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Name</t>
   </si>
@@ -104,6 +104,12 @@
   </si>
   <si>
     <t>Staging</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Long runtimes</t>
   </si>
 </sst>
 </file>
@@ -451,15 +457,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,8 +484,11 @@
       <c r="F1" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -499,7 +508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -519,7 +528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -535,8 +544,14 @@
       <c r="E4" s="1">
         <v>2017</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -552,8 +567,11 @@
       <c r="E5" s="1">
         <v>2017</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -570,7 +588,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -584,7 +602,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -601,7 +619,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -618,7 +636,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
@@ -635,7 +653,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -652,7 +670,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -669,7 +687,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
@@ -686,7 +704,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
@@ -703,7 +721,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -720,7 +738,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
